--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1603.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1603.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.190031236268927</v>
+        <v>0.6038436889648438</v>
       </c>
       <c r="B1">
-        <v>2.324518277659731</v>
+        <v>1.507175803184509</v>
       </c>
       <c r="C1">
-        <v>5.229930599372593</v>
+        <v>5.873884677886963</v>
       </c>
       <c r="D1">
-        <v>2.297532424351524</v>
+        <v>2.10520339012146</v>
       </c>
       <c r="E1">
-        <v>1.028474573997656</v>
+        <v>1.465823769569397</v>
       </c>
     </row>
   </sheetData>
